--- a/data/outputs/数学期刊(下)_altmetric/74Frontiers of Mathematics in China.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/74Frontiers of Mathematics in China.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE81"/>
+  <dimension ref="A1:CF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1039,6 +1044,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1292,6 +1300,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1541,6 +1552,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1798,6 +1812,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2047,6 +2064,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2292,6 +2312,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2541,6 +2564,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2794,6 +2820,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3041,6 +3070,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3284,6 +3316,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3533,6 +3568,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3782,6 +3820,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4035,6 +4076,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4285,6 +4329,9 @@
       </c>
       <c r="CE15" t="n">
         <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
@@ -4527,6 +4574,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4776,6 +4826,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5029,6 +5082,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5280,6 +5336,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5529,6 +5588,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5780,6 +5842,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6029,6 +6094,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6278,6 +6346,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6527,6 +6598,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6776,6 +6850,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7025,6 +7102,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7274,6 +7354,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7523,6 +7606,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7776,6 +7862,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8025,6 +8114,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8274,6 +8366,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8519,6 +8614,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8768,6 +8866,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9013,6 +9114,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9262,6 +9366,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9511,6 +9618,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9756,6 +9866,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10005,6 +10118,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10254,6 +10370,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10503,6 +10622,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10756,6 +10878,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11003,6 +11128,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11246,6 +11374,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11503,6 +11634,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11752,6 +11886,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12001,6 +12138,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12246,6 +12386,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12495,6 +12638,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12744,6 +12890,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12993,6 +13142,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13242,6 +13394,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13485,6 +13640,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13728,6 +13886,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13965,6 +14126,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14206,6 +14370,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14447,6 +14614,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14696,6 +14866,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14945,6 +15118,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15194,6 +15370,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15443,6 +15622,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15688,6 +15870,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15933,6 +16118,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16178,6 +16366,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16425,6 +16616,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16668,6 +16862,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16917,6 +17114,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17166,6 +17366,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17415,6 +17618,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17664,6 +17870,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17911,6 +18120,9 @@
         <v>0</v>
       </c>
       <c r="CE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18154,6 +18366,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18403,6 +18618,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18652,6 +18870,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18895,6 +19116,9 @@
         <v>0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19134,6 +19358,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19379,6 +19606,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19628,6 +19858,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19879,6 +20112,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20128,6 +20364,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20377,6 +20616,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20622,6 +20864,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
